--- a/Practice/PLAYERS_STATS_F.xlsx
+++ b/Practice/PLAYERS_STATS_F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asit\Personal\Berkley BootCamp\Module-20 Project\nba-player-analytics\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02483A4-06DF-4645-B5CF-D22648D59DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A086861-39B2-4144-A533-465766F649B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78AE7BCC-BD40-4637-8F60-941A91954F9A}"/>
   </bookViews>
